--- a/biology/Médecine/François_Gustave_Panel/François_Gustave_Panel.xlsx
+++ b/biology/Médecine/François_Gustave_Panel/François_Gustave_Panel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gustave_Panel</t>
+          <t>François_Gustave_Panel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François-Gustave Panel est un médecin et historien de la santé en Normandie, né à Saint-Valery-en-Caux en Seine-Inférieure le 6 avril 1862, mort à Rouen le 29 janvier 1947 (Seine-Inférieure)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Gustave Panel est un médecin et historien de la santé en Normandie, né à Saint-Valery-en-Caux en Seine-Inférieure le 6 avril 1862, mort à Rouen le 29 janvier 1947 (Seine-Inférieure).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gustave_Panel</t>
+          <t>François_Gustave_Panel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carrière
-Il sert comme médecin-auxiliaire du service de Santé en 1882, puis rejoint l'école de médecine de Rouen où il obtient le premier prix de deuxième année en 1883, ainsi que la médaille d'or du prix Pillore pour sa thèse en 1885.
-En 1888, il crée le bureau municipal d'hygiène et de santé publique de Rouen, qu'il dirige jusqu'en 1929. Parallèlement, il exerce une activité libérale dans son cabinet rue Saint-Nicolas[2] puis à Bois-Guillaume[3].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il sert comme médecin-auxiliaire du service de Santé en 1882, puis rejoint l'école de médecine de Rouen où il obtient le premier prix de deuxième année en 1883, ainsi que la médaille d'or du prix Pillore pour sa thèse en 1885.
+En 1888, il crée le bureau municipal d'hygiène et de santé publique de Rouen, qu'il dirige jusqu'en 1929. Parallèlement, il exerce une activité libérale dans son cabinet rue Saint-Nicolas puis à Bois-Guillaume.
 Par son mariage en 1888 avec Céline Héron, il est le gendre du bibliophile et philologue Alexandre Héron. Il le rejoint au sein de l'Académie des sciences, belles-lettres et arts de Rouen, puis hérite de son immense bibliothèque en 1903.
 Ses travaux d'érudition portent principalement sur l'histoire médicale de la Haute-Normandie, la politique de santé publique et la ville de Rouen.
 Il demeure 1 impasse du Champ-des-Oiseaux à Rouen.
-Vie privée
-Il est le fils unique de François Panel, coiffeur, et de Marie-Céline Renoult[4].  
-Ouvrages
-Gustave Panel, D'un moyen pratique de photographier le fond de l’œil, Paris, A. Delahaye et E. Lecrosnier, 1887.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>François_Gustave_Panel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gustave_Panel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils unique de François Panel, coiffeur, et de Marie-Céline Renoult.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Gustave_Panel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gustave_Panel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gustave Panel, D'un moyen pratique de photographier le fond de l’œil, Paris, A. Delahaye et E. Lecrosnier, 1887.
 Gustave Panel, Préoccupations municipales pour l'hygiène et la santé publiques à Rouen. Résumé historique de 1389 à 1870, Rouen, E. Cagniard, 1888.
 Gustave Panel, Un Rouennais oublié, Jacques Mesnard, chirurgien et accoucheur (1685-1746), 1889.
 Gustave Panel, Un chant royal présenté aux palinods de Rouen par Guygnart, apothicaire (XVIe siècle), Rouen, E. Marguery, 1891.
@@ -539,31 +626,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Gustave_Panel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Gustave_Panel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gustave_Panel</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de l'Instruction publique.</t>
         </is>
